--- a/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_Else.xlsx
+++ b/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_Else.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Coding-Sample\Python code - Structural Macroeconometrics- Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6505ED49-5A72-4A31-9010-5D19E274B568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A74EF1-8EEC-423C-8214-B8427AA7F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -984,13 +995,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Uncertainty_Italy</t>
-  </si>
-  <si>
     <t>Iprod_Italy_Year_on_year_growth</t>
   </si>
   <si>
-    <t>HICP_NOT_FE</t>
+    <t>Uncertainty_Italy_News</t>
+  </si>
+  <si>
+    <t>energy_uncertainty</t>
   </si>
 </sst>
 </file>
@@ -1310,17 +1321,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,13 +1339,13 @@
         <v>318</v>
       </c>
       <c r="B1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
         <v>319</v>
-      </c>
-      <c r="C1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1345,10 +1356,10 @@
         <v>147.87014396070614</v>
       </c>
       <c r="C2">
-        <v>-3.494217489</v>
+        <v>19.237192449999998</v>
       </c>
       <c r="D2">
-        <v>2.6276999999999999</v>
+        <v>-3.5567257044392342</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,10 +1370,10 @@
         <v>193.49886278536169</v>
       </c>
       <c r="C3">
-        <v>-0.75691752300000004</v>
+        <v>48.028800439999998</v>
       </c>
       <c r="D3">
-        <v>2.4708999999999999</v>
+        <v>-0.75979668144388057</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,10 +1384,10 @@
         <v>164.87624231758213</v>
       </c>
       <c r="C4">
-        <v>0.76463460800000005</v>
+        <v>31.189736809999999</v>
       </c>
       <c r="D4">
-        <v>2.3188</v>
+        <v>0.76172609499147725</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,10 +1398,10 @@
         <v>142.68882335033464</v>
       </c>
       <c r="C5">
-        <v>3.694122277</v>
+        <v>21.388484760000001</v>
       </c>
       <c r="D5">
-        <v>2.3121</v>
+        <v>3.6275247568813285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,10 +1412,10 @@
         <v>138.6943425441784</v>
       </c>
       <c r="C6">
-        <v>3.5254015170000002</v>
+        <v>26.400414300000001</v>
       </c>
       <c r="D6">
-        <v>2.3054999999999999</v>
+        <v>3.4646821887807988</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1415,10 +1426,10 @@
         <v>155.14021748587564</v>
       </c>
       <c r="C7">
-        <v>4.2060154360000004</v>
+        <v>29.031023019999999</v>
       </c>
       <c r="D7">
-        <v>2.0114999999999998</v>
+        <v>4.1199671381562553</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,10 +1440,10 @@
         <v>75.07657686064141</v>
       </c>
       <c r="C8">
-        <v>4.9828035499999999</v>
+        <v>26.622189880000001</v>
       </c>
       <c r="D8">
-        <v>2.0085999999999999</v>
+        <v>4.8626375040346836</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,10 +1454,10 @@
         <v>106.58140522164973</v>
       </c>
       <c r="C9">
-        <v>5.0428155520000004</v>
+        <v>31.189348620000001</v>
       </c>
       <c r="D9">
-        <v>1.8625</v>
+        <v>4.9197848217585438</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1457,10 +1468,10 @@
         <v>107.70080167345554</v>
       </c>
       <c r="C10">
-        <v>6.4124918539999998</v>
+        <v>12.352550450000001</v>
       </c>
       <c r="D10">
-        <v>1.8597999999999999</v>
+        <v>6.2152788668496939</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,10 +1482,10 @@
         <v>114.75605842190551</v>
       </c>
       <c r="C11">
-        <v>7.247629871</v>
+        <v>26.110983149999999</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6.9970272467801742</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1485,10 +1496,10 @@
         <v>80.101226500721708</v>
       </c>
       <c r="C12">
-        <v>7.1057037669999996</v>
+        <v>16.297906739999998</v>
       </c>
       <c r="D12">
-        <v>2.1368</v>
+        <v>6.8646046512377268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,10 +1510,10 @@
         <v>92.252218488282381</v>
       </c>
       <c r="C13">
-        <v>8.1667975780000006</v>
+        <v>11.87806653</v>
       </c>
       <c r="D13">
-        <v>1.9915</v>
+        <v>7.8504271763804034</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,10 +1524,10 @@
         <v>78.998412628339665</v>
       </c>
       <c r="C14">
-        <v>6.5517547589999996</v>
+        <v>11.236506779999999</v>
       </c>
       <c r="D14">
-        <v>2.1337000000000002</v>
+        <v>6.3460641297536924</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,10 +1538,10 @@
         <v>84.058595709841867</v>
       </c>
       <c r="C15">
-        <v>4.6609803190000001</v>
+        <v>11.247119079999999</v>
       </c>
       <c r="D15">
-        <v>2.2694999999999999</v>
+        <v>4.5556181610979074</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,10 +1552,10 @@
         <v>125.53818916856285</v>
       </c>
       <c r="C16">
-        <v>3.6256820759999999</v>
+        <v>18.18425753</v>
       </c>
       <c r="D16">
-        <v>2.4079000000000002</v>
+        <v>3.5615009605690418</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,10 +1566,10 @@
         <v>105.60758684415103</v>
       </c>
       <c r="C17">
-        <v>2.6512574789999999</v>
+        <v>15.59398361</v>
       </c>
       <c r="D17">
-        <v>2.2599</v>
+        <v>2.6167207561367256</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,10 +1580,10 @@
         <v>82.749161413521549</v>
       </c>
       <c r="C18">
-        <v>2.7408422629999998</v>
+        <v>18.47327422</v>
       </c>
       <c r="D18">
-        <v>2.2534999999999998</v>
+        <v>2.7039537018657356</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,10 +1594,10 @@
         <v>65.639022889686331</v>
       </c>
       <c r="C19">
-        <v>1.7297979489999999</v>
+        <v>12.730066089999999</v>
       </c>
       <c r="D19">
-        <v>2.2534999999999998</v>
+        <v>1.7150072661987537</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,10 +1608,10 @@
         <v>83.752859284350549</v>
       </c>
       <c r="C20">
-        <v>0.90015696899999997</v>
+        <v>11.44405063</v>
       </c>
       <c r="D20">
-        <v>2.1097000000000001</v>
+        <v>0.89612970581933737</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,10 +1622,10 @@
         <v>142.44585203605479</v>
       </c>
       <c r="C21">
-        <v>-1.057776968</v>
+        <v>25.73384411</v>
       </c>
       <c r="D21">
-        <v>2.391</v>
+        <v>-1.063411195152586</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,10 +1636,10 @@
         <v>243.8862301659081</v>
       </c>
       <c r="C22">
-        <v>0.48855849600000001</v>
+        <v>21.072722429999999</v>
       </c>
       <c r="D22">
-        <v>2.2471999999999999</v>
+        <v>0.48736892181837632</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,10 +1650,10 @@
         <v>109.75393938849649</v>
       </c>
       <c r="C23">
-        <v>-1.367612415</v>
+        <v>15.03592336</v>
       </c>
       <c r="D23">
-        <v>2.1008</v>
+        <v>-1.3770503821281643</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +1664,10 @@
         <v>112.45782962794458</v>
       </c>
       <c r="C24">
-        <v>-1.13269957</v>
+        <v>16.960370000000001</v>
       </c>
       <c r="D24">
-        <v>1.9525999999999999</v>
+        <v>-1.1391634685906205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,10 +1678,10 @@
         <v>104.41275145220166</v>
       </c>
       <c r="C25">
-        <v>-4.1766541139999998</v>
+        <v>5.9931058869999996</v>
       </c>
       <c r="D25">
-        <v>1.9525999999999999</v>
+        <v>-4.2663836692307555</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,10 +1692,10 @@
         <v>106.93924406651598</v>
       </c>
       <c r="C26">
-        <v>-1.618096006</v>
+        <v>8.6501956109999991</v>
       </c>
       <c r="D26">
-        <v>1.9499</v>
+        <v>-1.6313301345909359</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,10 +1706,10 @@
         <v>72.186697631127075</v>
       </c>
       <c r="C27">
-        <v>-2.0242983830000001</v>
+        <v>22.73560457</v>
       </c>
       <c r="D27">
-        <v>1.8030999999999999</v>
+        <v>-2.0450680741816996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,10 +1720,10 @@
         <v>107.49728886606161</v>
       </c>
       <c r="C28">
-        <v>-1.2205244049999999</v>
+        <v>12.756145480000001</v>
       </c>
       <c r="D28">
-        <v>1.6597999999999999</v>
+        <v>-1.2280339705172061</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,10 +1734,10 @@
         <v>64.251449942415988</v>
       </c>
       <c r="C29">
-        <v>-2.7441344999999999</v>
+        <v>15.759508110000001</v>
       </c>
       <c r="D29">
-        <v>1.6575</v>
+        <v>-2.7824891686584863</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,10 +1748,10 @@
         <v>76.101869405041981</v>
       </c>
       <c r="C30">
-        <v>-3.3145039559999998</v>
+        <v>17.150922739999999</v>
       </c>
       <c r="D30">
-        <v>1.5152000000000001</v>
+        <v>-3.3706783984875699</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,10 +1762,10 @@
         <v>101.81967156628635</v>
       </c>
       <c r="C31">
-        <v>-1.619406315</v>
+        <v>34.773739509999999</v>
       </c>
       <c r="D31">
-        <v>1.6529</v>
+        <v>-1.6326620026975824</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,10 +1776,10 @@
         <v>122.38406863129252</v>
       </c>
       <c r="C32">
-        <v>-0.72990687799999998</v>
+        <v>32.000974169999999</v>
       </c>
       <c r="D32">
-        <v>1.9283999999999999</v>
+        <v>-0.73258373176523506</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,10 +1790,10 @@
         <v>53.951402950858466</v>
       </c>
       <c r="C33">
-        <v>1.3157342839999999</v>
+        <v>19.507347230000001</v>
       </c>
       <c r="D33">
-        <v>1.6484000000000001</v>
+        <v>1.3071536836382514</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,10 +1804,10 @@
         <v>60.675237040267625</v>
       </c>
       <c r="C34">
-        <v>0.243132125</v>
+        <v>48.793259259999999</v>
       </c>
       <c r="D34">
-        <v>1.7857000000000001</v>
+        <v>0.24283703734466755</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,10 +1818,10 @@
         <v>79.268625109849111</v>
       </c>
       <c r="C35">
-        <v>1.876012523</v>
+        <v>43.819904979999997</v>
       </c>
       <c r="D35">
-        <v>1.9204000000000001</v>
+        <v>1.8586324400253318</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,10 +1832,10 @@
         <v>84.96528964776877</v>
       </c>
       <c r="C36">
-        <v>2.8641506900000002</v>
+        <v>37.428271100000003</v>
       </c>
       <c r="D36">
-        <v>1.7784</v>
+        <v>2.8239006355684992</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,10 +1846,10 @@
         <v>84.886047786269401</v>
       </c>
       <c r="C37">
-        <v>4.1910435149999996</v>
+        <v>38.645515439999997</v>
       </c>
       <c r="D37">
-        <v>1.7784</v>
+        <v>4.1055984885674413</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,10 +1860,10 @@
         <v>50.616802232989954</v>
       </c>
       <c r="C38">
-        <v>2.4670634649999998</v>
+        <v>67.72904527</v>
       </c>
       <c r="D38">
-        <v>1.9126000000000001</v>
+        <v>2.4371228903144804</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,10 +1874,10 @@
         <v>78.895078080371022</v>
       </c>
       <c r="C39">
-        <v>3.471116184</v>
+        <v>29.050129649999999</v>
       </c>
       <c r="D39">
-        <v>1.9074</v>
+        <v>3.4122317084626985</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,10 +1888,10 @@
         <v>83.254881928559684</v>
       </c>
       <c r="C40">
-        <v>4.0362501330000002</v>
+        <v>7.2003262540000001</v>
       </c>
       <c r="D40">
-        <v>1.9048</v>
+        <v>3.9569211390296566</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,10 +1902,10 @@
         <v>97.981175519308238</v>
       </c>
       <c r="C41">
-        <v>5.643123911</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1.7663</v>
+        <v>5.4896472290043796</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,10 +1916,10 @@
         <v>61.069562753886096</v>
       </c>
       <c r="C42">
-        <v>7.0234133290000003</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1.8996</v>
+        <v>6.7877440694748437</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,10 +1930,10 @@
         <v>71.402032439077018</v>
       </c>
       <c r="C43">
-        <v>5.1852046959999996</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2.0325000000000002</v>
+        <v>5.055246465322405</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,10 +1944,10 @@
         <v>60.31278859104269</v>
       </c>
       <c r="C44">
-        <v>3.594744006</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.8918999999999999</v>
+        <v>3.5316409021779016</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1947,10 +1958,10 @@
         <v>74.964235329433308</v>
       </c>
       <c r="C45">
-        <v>3.8961049499999998</v>
+        <v>7.4228358759999997</v>
       </c>
       <c r="D45">
-        <v>2.0270000000000001</v>
+        <v>3.8221222967149693</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,10 +1972,10 @@
         <v>85.743626951969304</v>
       </c>
       <c r="C46">
-        <v>3.3952705839999999</v>
+        <v>19.544838639999998</v>
       </c>
       <c r="D46">
-        <v>1.8893</v>
+        <v>3.3389036010907702</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1975,10 +1986,10 @@
         <v>80.528927702174002</v>
       </c>
       <c r="C47">
-        <v>2.8022349339999999</v>
+        <v>18.068109150000002</v>
       </c>
       <c r="D47">
-        <v>1.8843000000000001</v>
+        <v>2.7636907398727928</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,10 +2000,10 @@
         <v>134.05470281053084</v>
       </c>
       <c r="C48">
-        <v>3.4208903689999999</v>
+        <v>11.97137169</v>
       </c>
       <c r="D48">
-        <v>2.0160999999999998</v>
+        <v>3.3636790193805943</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,10 +2014,10 @@
         <v>129.79676653012436</v>
       </c>
       <c r="C49">
-        <v>6.0338113570000003</v>
+        <v>14.99469261</v>
       </c>
       <c r="D49">
-        <v>2.1505000000000001</v>
+        <v>5.8587832325475375</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,10 +2028,10 @@
         <v>76.65537247860496</v>
       </c>
       <c r="C50">
-        <v>2.8892459719999999</v>
+        <v>15.0993171</v>
       </c>
       <c r="D50">
-        <v>1.6086</v>
+        <v>2.8482941889700797</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,10 +2042,10 @@
         <v>88.950043798151214</v>
       </c>
       <c r="C51">
-        <v>1.7571747170000001</v>
+        <v>28.177580259999999</v>
       </c>
       <c r="D51">
-        <v>0.66839999999999999</v>
+        <v>1.7419149041684179</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,10 +2056,10 @@
         <v>64.785397569019509</v>
       </c>
       <c r="C52">
-        <v>0.95011857700000002</v>
+        <v>20.02934226</v>
       </c>
       <c r="D52">
-        <v>1.6021000000000001</v>
+        <v>0.94563333789023929</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,10 +2070,10 @@
         <v>104.39130996908861</v>
       </c>
       <c r="C53">
-        <v>-0.86409394699999997</v>
+        <v>18.7554315</v>
       </c>
       <c r="D53">
-        <v>2.4032</v>
+        <v>-0.86784888473623312</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,10 +2084,10 @@
         <v>73.364907826044075</v>
       </c>
       <c r="C54">
-        <v>-1.4843428320000001</v>
+        <v>15.456378150000001</v>
       </c>
       <c r="D54">
-        <v>2.5299999999999998</v>
+        <v>-1.4954694419716752</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,10 +2098,10 @@
         <v>102.68873782741206</v>
       </c>
       <c r="C55">
-        <v>-1.1737280240000001</v>
+        <v>35.082808059999998</v>
       </c>
       <c r="D55">
-        <v>2.3904000000000001</v>
+        <v>-1.1806705897939196</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2101,10 +2112,10 @@
         <v>108.88249695435519</v>
       </c>
       <c r="C56">
-        <v>-2.2870208390000002</v>
+        <v>25.300299979999998</v>
       </c>
       <c r="D56">
-        <v>2.1219999999999999</v>
+        <v>-2.3135788672486335</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,10 +2126,10 @@
         <v>68.851072255163885</v>
       </c>
       <c r="C57">
-        <v>-1.4843428320000001</v>
+        <v>33.380723000000003</v>
       </c>
       <c r="D57">
-        <v>1.7219</v>
+        <v>-1.4954694419716752</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,10 +2140,10 @@
         <v>201.73865989800811</v>
       </c>
       <c r="C58">
-        <v>-2.8928143319999999</v>
+        <v>28.226617000000001</v>
       </c>
       <c r="D58">
-        <v>2.2517</v>
+        <v>-2.9354810672910681</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2143,10 +2154,10 @@
         <v>180.49073400928626</v>
       </c>
       <c r="C59">
-        <v>-3.8162058679999999</v>
+        <v>24.398659630000001</v>
       </c>
       <c r="D59">
-        <v>2.5099</v>
+        <v>-3.8909302669837942</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2157,10 +2168,10 @@
         <v>190.29062568355008</v>
       </c>
       <c r="C60">
-        <v>-6.3846073370000003</v>
+        <v>23.414788160000001</v>
       </c>
       <c r="D60">
-        <v>2.5032999999999999</v>
+        <v>-6.5975364493266575</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2171,10 +2182,10 @@
         <v>117.27114365213079</v>
       </c>
       <c r="C61">
-        <v>-6.3732936740000001</v>
+        <v>29.341814859999999</v>
       </c>
       <c r="D61">
-        <v>2.5</v>
+        <v>-6.5854519205742257</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2185,10 +2196,10 @@
         <v>117.5427784259019</v>
       </c>
       <c r="C62">
-        <v>-4.5241685540000001</v>
+        <v>33.398850119999999</v>
       </c>
       <c r="D62">
-        <v>2.6385000000000001</v>
+        <v>-4.6297044392301423</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,10 +2210,10 @@
         <v>113.07114205655635</v>
       </c>
       <c r="C63">
-        <v>-2.8257453130000001</v>
+        <v>34.758619359999997</v>
       </c>
       <c r="D63">
-        <v>2.9216000000000002</v>
+        <v>-2.8664379083069846</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,10 +2224,10 @@
         <v>79.444112216854691</v>
       </c>
       <c r="C64">
-        <v>-2.1961041469999998</v>
+        <v>48.787883549999997</v>
       </c>
       <c r="D64">
-        <v>2.8908999999999998</v>
+        <v>-2.2205774839866521</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,10 +2238,10 @@
         <v>106.7112447214253</v>
       </c>
       <c r="C65">
-        <v>-4.1997155069999996</v>
+        <v>50.858886679999998</v>
       </c>
       <c r="D65">
-        <v>2.7378999999999998</v>
+        <v>-4.2904531362586873</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,10 +2252,10 @@
         <v>121.63528664395471</v>
       </c>
       <c r="C66">
-        <v>-0.71369939599999999</v>
+        <v>23.142159230000001</v>
       </c>
       <c r="D66">
-        <v>2.5973999999999999</v>
+        <v>-0.71625841326641293</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,10 +2266,10 @@
         <v>158.26320995171173</v>
       </c>
       <c r="C67">
-        <v>-1.900237154</v>
+        <v>23.573973039999998</v>
       </c>
       <c r="D67">
-        <v>2.7237</v>
+        <v>-1.9185236886813506</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2269,10 +2280,10 @@
         <v>117.70550076176423</v>
       </c>
       <c r="C68">
-        <v>-0.40358480200000002</v>
+        <v>49.127046</v>
       </c>
       <c r="D68">
-        <v>2.7273000000000001</v>
+        <v>-0.40440140296240656</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2283,10 +2294,10 @@
         <v>161.01407937336197</v>
       </c>
       <c r="C69">
-        <v>-3.3307293630000001</v>
+        <v>26.061662030000001</v>
       </c>
       <c r="D69">
-        <v>2.8645999999999998</v>
+        <v>-3.3874614413043069</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,10 +2308,10 @@
         <v>203.66310017647095</v>
       </c>
       <c r="C70">
-        <v>8.0441453999999996E-2</v>
+        <v>23.20851588</v>
       </c>
       <c r="D70">
-        <v>2.9792999999999998</v>
+        <v>8.0409116882318443E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,10 +2322,10 @@
         <v>153.39405974165646</v>
       </c>
       <c r="C71">
-        <v>-0.56676791699999995</v>
+        <v>49.209897509999998</v>
       </c>
       <c r="D71">
-        <v>2.8351000000000002</v>
+        <v>-0.56838014063123055</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,10 +2336,10 @@
         <v>156.21795950673581</v>
       </c>
       <c r="C72">
-        <v>2.7115643939999998</v>
+        <v>37.994178230000003</v>
       </c>
       <c r="D72">
-        <v>2.9563000000000001</v>
+        <v>2.6754528252828536</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,10 +2350,10 @@
         <v>133.92780977957111</v>
       </c>
       <c r="C73">
-        <v>0.243132125</v>
+        <v>60.692745930000001</v>
       </c>
       <c r="D73">
-        <v>2.9525000000000001</v>
+        <v>0.24283703734466755</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,10 +2364,10 @@
         <v>126.10830185084095</v>
       </c>
       <c r="C74">
-        <v>2.1241966240000001</v>
+        <v>27.84642397</v>
       </c>
       <c r="D74">
-        <v>2.5707</v>
+        <v>2.1019500568511873</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2367,10 +2378,10 @@
         <v>125.58943760403145</v>
       </c>
       <c r="C75">
-        <v>-1.0500873660000001</v>
+        <v>31.955280640000002</v>
       </c>
       <c r="D75">
-        <v>2.4516</v>
+        <v>-1.0556396869787044</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,10 +2392,10 @@
         <v>142.61327363065303</v>
       </c>
       <c r="C76">
-        <v>-1.6840217630000001</v>
+        <v>17.226657429999999</v>
       </c>
       <c r="D76">
-        <v>2.8096999999999999</v>
+        <v>-1.6983626396488205</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2395,10 +2406,10 @@
         <v>110.2761462588889</v>
       </c>
       <c r="C77">
-        <v>2.8122283170000002</v>
+        <v>24.914497780000001</v>
       </c>
       <c r="D77">
-        <v>2.9188000000000001</v>
+        <v>2.7734112457133087</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,10 +2420,10 @@
         <v>150.13939895191825</v>
       </c>
       <c r="C78">
-        <v>-3.9936224729999998</v>
+        <v>34.88730649</v>
       </c>
       <c r="D78">
-        <v>3.0379999999999998</v>
+        <v>-4.0755564158386548</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2423,10 +2434,10 @@
         <v>82.609934476072723</v>
       </c>
       <c r="C79">
-        <v>-1.7756116930000001</v>
+        <v>40.726431230000003</v>
       </c>
       <c r="D79">
-        <v>2.7778</v>
+        <v>-1.7915648033609344</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2437,10 +2448,10 @@
         <v>95.043305786637504</v>
       </c>
       <c r="C80">
+        <v>22.027188330000001</v>
+      </c>
+      <c r="D80">
         <v>0</v>
-      </c>
-      <c r="D80">
-        <v>2.7812999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,10 +2462,10 @@
         <v>79.428466070128337</v>
       </c>
       <c r="C81">
-        <v>-0.90237247099999995</v>
+        <v>26.381657109999999</v>
       </c>
       <c r="D81">
-        <v>2.5316000000000001</v>
+        <v>-0.90646851089637437</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,10 +2476,10 @@
         <v>88.496129644528139</v>
       </c>
       <c r="C82">
-        <v>-2.4134762680000001</v>
+        <v>17.88351226</v>
       </c>
       <c r="D82">
-        <v>2.5156999999999998</v>
+        <v>-2.4430778622241078</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,10 +2490,10 @@
         <v>102.58529949518412</v>
       </c>
       <c r="C83">
-        <v>-0.16287997900000001</v>
+        <v>37.683104810000003</v>
       </c>
       <c r="D83">
-        <v>2.6316000000000002</v>
+        <v>-0.16301277228309985</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,10 +2504,10 @@
         <v>82.617431432602956</v>
       </c>
       <c r="C84">
-        <v>-0.71997990199999995</v>
+        <v>21.98230826</v>
       </c>
       <c r="D84">
-        <v>2.6217000000000001</v>
+        <v>-0.72258426575118051</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2507,10 +2518,10 @@
         <v>94.450058704880774</v>
       </c>
       <c r="C85">
-        <v>0.32338990200000001</v>
+        <v>30.3814931</v>
       </c>
       <c r="D85">
-        <v>2.4937999999999998</v>
+        <v>0.32286812178847768</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2521,10 +2532,10 @@
         <v>92.189436906011579</v>
       </c>
       <c r="C86">
-        <v>-0.71997990199999995</v>
+        <v>31.15069853</v>
       </c>
       <c r="D86">
-        <v>2.1303000000000001</v>
+        <v>-0.72258426575118051</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2535,10 +2546,10 @@
         <v>73.695608994433115</v>
       </c>
       <c r="C87">
-        <v>1.0612312209999999</v>
+        <v>23.095872270000001</v>
       </c>
       <c r="D87">
-        <v>2.3929</v>
+        <v>1.0556396869787044</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,10 +2560,10 @@
         <v>134.71387609168883</v>
       </c>
       <c r="C88">
-        <v>-0.89721983400000005</v>
+        <v>19.246645239999999</v>
       </c>
       <c r="D88">
-        <v>2.3601999999999999</v>
+        <v>-0.90126908978325204</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,10 +2574,10 @@
         <v>107.23698313007688</v>
       </c>
       <c r="C89">
-        <v>-0.40220581599999999</v>
+        <v>26.296586900000001</v>
       </c>
       <c r="D89">
-        <v>2.3428</v>
+        <v>-0.40301683907140173</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,10 +2588,10 @@
         <v>91.055152586909315</v>
       </c>
       <c r="C90">
-        <v>2.745403112</v>
+        <v>16.4490561</v>
       </c>
       <c r="D90">
-        <v>2.2113</v>
+        <v>2.7083927815576558</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,10 +2602,10 @@
         <v>104.18458235056296</v>
       </c>
       <c r="C91">
-        <v>0.90385479800000001</v>
+        <v>17.890565509999998</v>
       </c>
       <c r="D91">
-        <v>2.4569999999999999</v>
+        <v>0.89979447858015149</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2605,10 +2616,10 @@
         <v>168.23732870249657</v>
       </c>
       <c r="C92">
-        <v>-0.243132125</v>
+        <v>12.40051207</v>
       </c>
       <c r="D92">
-        <v>2.214</v>
+        <v>-0.24342817139544337</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2619,10 +2630,10 @@
         <v>76.95778875628767</v>
       </c>
       <c r="C93">
-        <v>-0.33107072700000001</v>
+        <v>11.584828290000001</v>
       </c>
       <c r="D93">
-        <v>2.3456999999999999</v>
+        <v>-0.33161997868065285</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,10 +2644,10 @@
         <v>92.834441228487606</v>
       </c>
       <c r="C94">
-        <v>0.74194141499999999</v>
+        <v>12.71473063</v>
       </c>
       <c r="D94">
-        <v>2.4540000000000002</v>
+        <v>0.7392025681764558</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2647,10 +2658,10 @@
         <v>96.10472155734692</v>
       </c>
       <c r="C95">
-        <v>0.48935555800000002</v>
+        <v>12.979709039999999</v>
       </c>
       <c r="D95">
-        <v>2.3199000000000001</v>
+        <v>0.4881621057184482</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2661,10 +2672,10 @@
         <v>133.16458209065166</v>
       </c>
       <c r="C96">
-        <v>-2.3368579340000002</v>
+        <v>21.087702149999998</v>
       </c>
       <c r="D96">
-        <v>2.1898</v>
+        <v>-2.3645954354011067</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,10 +2686,10 @@
         <v>103.2715252621333</v>
       </c>
       <c r="C97">
-        <v>-3.062059139</v>
+        <v>32.22142015</v>
       </c>
       <c r="D97">
-        <v>2.4331</v>
+        <v>-3.1099197177495874</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,10 +2700,10 @@
         <v>65.036358426222009</v>
       </c>
       <c r="C98">
-        <v>-2.9814722740000001</v>
+        <v>15.901412649999999</v>
       </c>
       <c r="D98">
-        <v>2.2086000000000001</v>
+        <v>-3.0268218236542133</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2703,10 +2714,10 @@
         <v>89.351254202118156</v>
       </c>
       <c r="C99">
-        <v>-2.3425212279999998</v>
+        <v>24.8692721</v>
       </c>
       <c r="D99">
-        <v>2.0910000000000002</v>
+        <v>-2.3703944066419069</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,10 +2728,10 @@
         <v>103.46142194971316</v>
       </c>
       <c r="C100">
-        <v>-0.411556845</v>
+        <v>26.04270627</v>
       </c>
       <c r="D100">
-        <v>2.0630999999999999</v>
+        <v>-0.41240607148411712</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,10 +2742,10 @@
         <v>103.64127487483617</v>
       </c>
       <c r="C101">
-        <v>-0.16156433000000001</v>
+        <v>27.06906596</v>
       </c>
       <c r="D101">
-        <v>2.0482</v>
+        <v>-0.16169498638562985</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,10 +2756,10 @@
         <v>104.25213261739965</v>
       </c>
       <c r="C102">
-        <v>-2.2672336240000002</v>
+        <v>26.070991029999998</v>
       </c>
       <c r="D102">
-        <v>2.1635</v>
+        <v>-2.2933305719871733</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,10 +2770,10 @@
         <v>87.67657005099656</v>
       </c>
       <c r="C103">
-        <v>-1.7101583359999999</v>
+        <v>27.447957410000001</v>
       </c>
       <c r="D103">
-        <v>1.9185000000000001</v>
+        <v>-1.7249504313559427</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,10 +2784,10 @@
         <v>81.494941869982654</v>
       </c>
       <c r="C104">
-        <v>-0.56860972099999996</v>
+        <v>31.055621550000001</v>
       </c>
       <c r="D104">
-        <v>1.9254</v>
+        <v>-0.57023246057141819</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,10 +2798,10 @@
         <v>90.109938174147828</v>
       </c>
       <c r="C105">
-        <v>0.91361408799999999</v>
+        <v>14.823503690000001</v>
       </c>
       <c r="D105">
-        <v>1.8093999999999999</v>
+        <v>0.90946588063633982</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,10 +2812,10 @@
         <v>136.10192177098463</v>
       </c>
       <c r="C106">
-        <v>-8.1839891999999997E-2</v>
+        <v>20.973471620000002</v>
       </c>
       <c r="D106">
-        <v>1.6766000000000001</v>
+        <v>-8.1873398831522337E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,10 +2826,10 @@
         <v>55.540821639904003</v>
       </c>
       <c r="C107">
-        <v>-0.81167500199999998</v>
+        <v>25.371582539999999</v>
       </c>
       <c r="D107">
-        <v>1.9093</v>
+        <v>-0.81498701763793591</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,10 +2840,10 @@
         <v>74.495947161841798</v>
       </c>
       <c r="C108">
-        <v>1.897682893</v>
+        <v>21.904388340000001</v>
       </c>
       <c r="D108">
-        <v>1.7857000000000001</v>
+        <v>1.8799014950808157</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2843,10 +2854,10 @@
         <v>71.642589949877419</v>
       </c>
       <c r="C109">
-        <v>1.1637708870000001</v>
+        <v>21.6753334</v>
       </c>
       <c r="D109">
-        <v>1.6627000000000001</v>
+        <v>1.1570511582179144</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,10 +2868,10 @@
         <v>94.976977567310712</v>
       </c>
       <c r="C110">
-        <v>1.4949746660000001</v>
+        <v>13.02069642</v>
       </c>
       <c r="D110">
-        <v>1.5606</v>
+        <v>1.4839100585001042</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,10 +2882,10 @@
         <v>43.251461221617681</v>
       </c>
       <c r="C111">
-        <v>2.9776681100000002</v>
+        <v>15.91905176</v>
       </c>
       <c r="D111">
-        <v>1.6867000000000001</v>
+        <v>2.9341964263766229</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,10 +2896,10 @@
         <v>73.516803213376917</v>
       </c>
       <c r="C112">
-        <v>3.3884646570000001</v>
+        <v>20.594695810000001</v>
       </c>
       <c r="D112">
-        <v>1.7836000000000001</v>
+        <v>3.3323209485423</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,10 +2910,10 @@
         <v>113.6910987889451</v>
       </c>
       <c r="C113">
-        <v>0.40456445800000002</v>
+        <v>25.330723020000001</v>
       </c>
       <c r="D113">
-        <v>1.889</v>
+        <v>0.40374829656348865</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,10 +2924,10 @@
         <v>58.357181857222827</v>
       </c>
       <c r="C114">
-        <v>5.2195751259999996</v>
+        <v>19.35449887</v>
       </c>
       <c r="D114">
-        <v>1.7646999999999999</v>
+        <v>5.0879172347898738</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2927,10 +2938,10 @@
         <v>61.922007558518388</v>
       </c>
       <c r="C115">
-        <v>5.551003025</v>
+        <v>13.661121339999999</v>
       </c>
       <c r="D115">
-        <v>1.8824000000000001</v>
+        <v>5.4024091104365901</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,10 +2952,10 @@
         <v>64.342908449119548</v>
       </c>
       <c r="C116">
-        <v>2.5326456940000002</v>
+        <v>20.210655299999999</v>
       </c>
       <c r="D116">
-        <v>1.6529</v>
+        <v>2.5011056460576775</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,10 +2966,10 @@
         <v>52.173727665360737</v>
       </c>
       <c r="C117">
-        <v>4.6913364809999996</v>
+        <v>35.093111309999998</v>
       </c>
       <c r="D117">
-        <v>1.6588000000000001</v>
+        <v>4.5846182346974906</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,10 +2980,10 @@
         <v>67.136860490119147</v>
       </c>
       <c r="C118">
-        <v>3.9312047360000002</v>
+        <v>40.189439210000003</v>
       </c>
       <c r="D118">
-        <v>2.0024000000000002</v>
+        <v>3.8559001349018907</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,10 +2994,10 @@
         <v>64.074499818585764</v>
       </c>
       <c r="C119">
-        <v>4.0098273339999997</v>
+        <v>22.379990490000001</v>
       </c>
       <c r="D119">
-        <v>1.8734999999999999</v>
+        <v>3.931520228708596</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,10 +3008,10 @@
         <v>71.037245483012796</v>
       </c>
       <c r="C120">
-        <v>3.0769367810000001</v>
+        <v>24.66105649</v>
       </c>
       <c r="D120">
-        <v>1.8713</v>
+        <v>3.0305482444954457</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,10 +3022,10 @@
         <v>67.546386435127388</v>
       </c>
       <c r="C121">
-        <v>6.326983587</v>
+        <v>19.582017709999999</v>
       </c>
       <c r="D121">
-        <v>1.8692</v>
+        <v>6.1348910862561112</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,10 +3036,10 @@
         <v>31.984301823857486</v>
       </c>
       <c r="C122">
-        <v>4.8281444110000002</v>
+        <v>37.511605609999997</v>
       </c>
       <c r="D122">
-        <v>1.6548</v>
+        <v>4.7152103388689248</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,10 +3050,10 @@
         <v>52.379314075291582</v>
       </c>
       <c r="C123">
-        <v>3.534190808</v>
+        <v>15.90306213</v>
       </c>
       <c r="D123">
-        <v>2.1326999999999998</v>
+        <v>3.4731718135231127</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,10 +3064,10 @@
         <v>69.383790037512327</v>
       </c>
       <c r="C124">
-        <v>3.7569869919999999</v>
+        <v>11.4826424</v>
       </c>
       <c r="D124">
-        <v>1.986</v>
+        <v>3.6881315353724631</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,10 +3078,10 @@
         <v>63.664647919128825</v>
       </c>
       <c r="C125">
-        <v>2.6591248109999999</v>
+        <v>13.188670780000001</v>
       </c>
       <c r="D125">
-        <v>1.8540000000000001</v>
+        <v>2.6243845981291258</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,10 +3092,10 @@
         <v>49.499925663459827</v>
       </c>
       <c r="C126">
-        <v>2.4409911379999998</v>
+        <v>9.9691249119999998</v>
       </c>
       <c r="D126">
-        <v>1.8496999999999999</v>
+        <v>2.4116750597511505</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,10 +3106,10 @@
         <v>74.485836187954391</v>
       </c>
       <c r="C127">
-        <v>1.491332874</v>
+        <v>10.80837775</v>
       </c>
       <c r="D127">
-        <v>1.8475999999999999</v>
+        <v>1.4803218442361654</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,10 +3120,10 @@
         <v>59.823109081667113</v>
       </c>
       <c r="C128">
-        <v>2.3904788849999998</v>
+        <v>8.5644169039999998</v>
       </c>
       <c r="D128">
-        <v>1.7422</v>
+        <v>2.3623542652718044</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,10 +3134,10 @@
         <v>58.478515755821249</v>
       </c>
       <c r="C129">
-        <v>4.7956040360000003</v>
+        <v>5.9707786929999997</v>
       </c>
       <c r="D129">
-        <v>1.8648</v>
+        <v>4.684163879947878</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,10 +3148,10 @@
         <v>80.544743385047539</v>
       </c>
       <c r="C130">
-        <v>2.364106064</v>
+        <v>9.4670823550000005</v>
       </c>
       <c r="D130">
-        <v>1.8475999999999999</v>
+        <v>2.3365938449921408</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,10 +3162,10 @@
         <v>38.656041258548782</v>
       </c>
       <c r="C131">
-        <v>1.1015080719999999</v>
+        <v>5.3057847709999999</v>
       </c>
       <c r="D131">
-        <v>2.069</v>
+        <v>1.0954856566749882</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,10 +3176,10 @@
         <v>77.55107252315851</v>
       </c>
       <c r="C132">
-        <v>-0.15712227400000001</v>
+        <v>7.6134049939999997</v>
       </c>
       <c r="D132">
-        <v>2.2961999999999998</v>
+        <v>-0.15724584062066782</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,10 +3190,10 @@
         <v>65.23635829874091</v>
       </c>
       <c r="C133">
-        <v>-1.0819295579999999</v>
+        <v>6.0322044960000003</v>
       </c>
       <c r="D133">
-        <v>2.4083000000000001</v>
+        <v>-1.0878249775256421</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,10 +3204,10 @@
         <v>102.74791776765171</v>
       </c>
       <c r="C134">
-        <v>2.0296777330000002</v>
+        <v>6.0519457340000002</v>
       </c>
       <c r="D134">
-        <v>2.5581</v>
+        <v>2.0093543139242165</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3207,10 +3218,10 @@
         <v>99.822347052041877</v>
       </c>
       <c r="C135">
-        <v>0.62061008900000003</v>
+        <v>4.5546781709999999</v>
       </c>
       <c r="D135">
-        <v>2.4361999999999999</v>
+        <v>0.61869223585606647</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,10 +3232,10 @@
         <v>99.058162208950108</v>
       </c>
       <c r="C136">
-        <v>0.46221103099999999</v>
+        <v>6.8027875529999999</v>
       </c>
       <c r="D136">
-        <v>2.8637000000000001</v>
+        <v>0.46114611641412395</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,10 +3246,10 @@
         <v>72.353140127739664</v>
       </c>
       <c r="C137">
-        <v>3.3751630829999999</v>
+        <v>11.267636420000001</v>
       </c>
       <c r="D137">
-        <v>2.7303999999999999</v>
+        <v>3.3194544937519943</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,10 +3260,10 @@
         <v>67.744362825082888</v>
       </c>
       <c r="C138">
-        <v>-2.3059562210000002</v>
+        <v>12.70498561</v>
       </c>
       <c r="D138">
-        <v>2.8376999999999999</v>
+        <v>-2.3329593186790731</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,10 +3274,10 @@
         <v>73.365870197865249</v>
       </c>
       <c r="C139">
-        <v>-0.61869050199999998</v>
+        <v>12.204835900000001</v>
       </c>
       <c r="D139">
-        <v>2.9478</v>
+        <v>-0.62061232213581619</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,10 +3288,10 @@
         <v>61.359555408878322</v>
       </c>
       <c r="C140">
-        <v>-3.1906937000000002</v>
+        <v>20.32034488</v>
       </c>
       <c r="D140">
-        <v>2.7397</v>
+        <v>-3.2427056861648929</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,10 +3302,10 @@
         <v>58.8636939777899</v>
       </c>
       <c r="C141">
-        <v>-9.0772750020000004</v>
+        <v>7.7052272730000002</v>
       </c>
       <c r="D141">
-        <v>3.2037</v>
+        <v>-9.5160216070286019</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,10 +3316,10 @@
         <v>97.264074046644154</v>
       </c>
       <c r="C142">
-        <v>-7.3133101140000001</v>
+        <v>18.939972860000001</v>
       </c>
       <c r="D142">
-        <v>2.9478</v>
+        <v>-7.5945306395626133</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,10 +3330,10 @@
         <v>133.04827298791523</v>
       </c>
       <c r="C143">
-        <v>-8.2490137309999998</v>
+        <v>19.79975314</v>
       </c>
       <c r="D143">
-        <v>3.0405000000000002</v>
+        <v>-8.6091949586440286</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,10 +3344,10 @@
         <v>86.026437329769834</v>
       </c>
       <c r="C144">
-        <v>-10.38552389</v>
+        <v>11.88878135</v>
       </c>
       <c r="D144">
-        <v>2.6936</v>
+        <v>-10.965331534132794</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3347,10 +3358,10 @@
         <v>74.723483329155442</v>
       </c>
       <c r="C145">
-        <v>-14.68747778</v>
+        <v>11.23224505</v>
       </c>
       <c r="D145">
-        <v>2.5756000000000001</v>
+        <v>-15.884894017040896</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,10 +3372,10 @@
         <v>123.0010477083781</v>
       </c>
       <c r="C146">
-        <v>-19.663384319999999</v>
+        <v>13.542627250000001</v>
       </c>
       <c r="D146">
-        <v>2.0407999999999999</v>
+        <v>-21.894468293836766</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3375,10 +3386,10 @@
         <v>122.50938433937458</v>
       </c>
       <c r="C147">
-        <v>-21.973764970000001</v>
+        <v>10.16102929</v>
       </c>
       <c r="D147">
-        <v>2.0385</v>
+        <v>-24.812506931706046</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3389,10 +3400,10 @@
         <v>122.76371338630436</v>
       </c>
       <c r="C148">
-        <v>-25.46010364</v>
+        <v>10.89428021</v>
       </c>
       <c r="D148">
-        <v>1.7817000000000001</v>
+        <v>-29.383568238110058</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,10 +3414,10 @@
         <v>108.54857885923018</v>
       </c>
       <c r="C149">
-        <v>-25.816233700000002</v>
+        <v>9.3685752180000001</v>
       </c>
       <c r="D149">
-        <v>1.9934000000000001</v>
+        <v>-29.862484279885404</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,10 +3428,10 @@
         <v>131.96498100545392</v>
       </c>
       <c r="C150">
-        <v>-21.793855350000001</v>
+        <v>13.33657187</v>
       </c>
       <c r="D150">
-        <v>1.8764000000000001</v>
+        <v>-24.582196542490742</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3431,10 +3442,10 @@
         <v>73.355787116114683</v>
       </c>
       <c r="C151">
-        <v>-23.190670350000001</v>
+        <v>29.511049759999999</v>
       </c>
       <c r="D151">
-        <v>1.6519999999999999</v>
+        <v>-26.38440734148686</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,10 +3456,10 @@
         <v>97.119504609513825</v>
       </c>
       <c r="C152">
-        <v>-18.89064681</v>
+        <v>31.647249240000001</v>
       </c>
       <c r="D152">
-        <v>1.2222</v>
+        <v>-20.937190237340531</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,10 +3470,10 @@
         <v>57.65992271598541</v>
       </c>
       <c r="C153">
-        <v>-18.646867440000001</v>
+        <v>16.728141990000001</v>
       </c>
       <c r="D153">
-        <v>1.3304</v>
+        <v>-20.637084583606846</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3473,10 +3484,10 @@
         <v>117.37453398348241</v>
       </c>
       <c r="C154">
-        <v>-15.61466899</v>
+        <v>29.288282120000002</v>
       </c>
       <c r="D154">
-        <v>1.5419</v>
+        <v>-16.977660271968809</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3487,10 +3498,10 @@
         <v>88.23627382317089</v>
       </c>
       <c r="C155">
-        <v>-12.38338725</v>
+        <v>15.585114300000001</v>
       </c>
       <c r="D155">
-        <v>1.4208000000000001</v>
+        <v>-13.219956280158307</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3501,10 +3512,10 @@
         <v>113.5038282993474</v>
       </c>
       <c r="C156">
-        <v>-9.1307879060000001</v>
+        <v>17.99323875</v>
       </c>
       <c r="D156">
-        <v>1.4208000000000001</v>
+        <v>-9.5748943012023524</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,10 +3526,10 @@
         <v>99.864632556191381</v>
       </c>
       <c r="C157">
-        <v>-6.5934065930000001</v>
+        <v>13.57580692</v>
       </c>
       <c r="D157">
-        <v>1.5284</v>
+        <v>-6.8208250026533079</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3529,10 +3540,10 @@
         <v>104.52817810625834</v>
       </c>
       <c r="C158">
-        <v>0.57147646699999999</v>
+        <v>12.17955385</v>
       </c>
       <c r="D158">
-        <v>1.4443999999999999</v>
+        <v>0.56984973449134557</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3543,10 +3554,10 @@
         <v>106.47966280686907</v>
       </c>
       <c r="C159">
-        <v>3.359666217</v>
+        <v>11.563581340000001</v>
       </c>
       <c r="D159">
-        <v>1.2209000000000001</v>
+        <v>3.3044624719721583</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,10 +3568,10 @@
         <v>98.562370444944619</v>
       </c>
       <c r="C160">
-        <v>8.1275291460000005</v>
+        <v>15.23992069</v>
       </c>
       <c r="D160">
-        <v>1.4222999999999999</v>
+        <v>7.8141169935565635</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,10 +3582,10 @@
         <v>110.83781665824699</v>
       </c>
       <c r="C161">
-        <v>8.5977890069999994</v>
+        <v>30.891454809999999</v>
       </c>
       <c r="D161">
-        <v>1.6287</v>
+        <v>8.2480862254684872</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,10 +3596,10 @@
         <v>114.94949165378587</v>
       </c>
       <c r="C162">
-        <v>7.1428283969999997</v>
+        <v>22.036461450000001</v>
       </c>
       <c r="D162">
-        <v>1.4085000000000001</v>
+        <v>6.8992603188242185</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,10 +3610,10 @@
         <v>160.79039833506351</v>
       </c>
       <c r="C163">
-        <v>10.536977909999999</v>
+        <v>39.385099879999999</v>
       </c>
       <c r="D163">
-        <v>1.5167999999999999</v>
+        <v>10.017992067348125</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,10 +3624,10 @@
         <v>144.46775976560252</v>
       </c>
       <c r="C164">
-        <v>7.8294922470000001</v>
+        <v>20.408517929999999</v>
       </c>
       <c r="D164">
-        <v>1.7563</v>
+        <v>7.5381018067247396</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,10 +3638,10 @@
         <v>111.56591378723688</v>
       </c>
       <c r="C165">
-        <v>14.09734158</v>
+        <v>17.863975480000001</v>
       </c>
       <c r="D165">
-        <v>1.6411</v>
+        <v>13.188177160456238</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,10 +3652,10 @@
         <v>126.12784996964379</v>
       </c>
       <c r="C166">
-        <v>6.2992474759999997</v>
+        <v>15.65904639</v>
       </c>
       <c r="D166">
-        <v>1.5184</v>
+        <v>6.1088020091224493</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,10 +3666,10 @@
         <v>133.0658143633579</v>
       </c>
       <c r="C167">
-        <v>4.9371002810000002</v>
+        <v>23.335361370000001</v>
       </c>
       <c r="D167">
-        <v>1.7241</v>
+        <v>4.8190939730703874</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,10 +3680,10 @@
         <v>143.53141554704732</v>
       </c>
       <c r="C168">
-        <v>5.3139681169999999</v>
+        <v>29.566782610000001</v>
       </c>
       <c r="D168">
-        <v>1.6164000000000001</v>
+        <v>5.1775875039771435</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,10 +3694,10 @@
         <v>109.6550150801729</v>
       </c>
       <c r="C169">
-        <v>7.7450571860000004</v>
+        <v>13.71915914</v>
       </c>
       <c r="D169">
-        <v>1.6129</v>
+        <v>7.4597668961090768</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,10 +3708,10 @@
         <v>87.866726289025721</v>
       </c>
       <c r="C170">
-        <v>2.0833175490000002</v>
+        <v>27.149889430000002</v>
       </c>
       <c r="D170">
-        <v>1.2048000000000001</v>
+        <v>2.0619132582540445</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,10 +3722,10 @@
         <v>103.48958500979919</v>
       </c>
       <c r="C171">
-        <v>5.7361367530000003</v>
+        <v>18.273052069999999</v>
       </c>
       <c r="D171">
-        <v>1.3158000000000001</v>
+        <v>5.5776528812723214</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3725,10 +3736,10 @@
         <v>99.256666401889788</v>
       </c>
       <c r="C172">
-        <v>5.4234797969999997</v>
+        <v>17.838532310000002</v>
       </c>
       <c r="D172">
-        <v>2.1575000000000002</v>
+        <v>5.2815193778609881</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,10 +3750,10 @@
         <v>103.88103682653349</v>
       </c>
       <c r="C173">
-        <v>5.4665231419999998</v>
+        <v>6.1576829799999997</v>
       </c>
       <c r="D173">
-        <v>2.1368</v>
+        <v>5.3223400386368525</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3753,10 +3764,10 @@
         <v>138.29416361895559</v>
       </c>
       <c r="C174">
-        <v>3.0047581440000002</v>
+        <v>11.38093327</v>
       </c>
       <c r="D174">
-        <v>2.1368</v>
+        <v>2.9604996748423318</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,10 +3778,10 @@
         <v>97.679091866441041</v>
       </c>
       <c r="C175">
-        <v>-0.18333334900000001</v>
+        <v>10.064535749999999</v>
       </c>
       <c r="D175">
-        <v>2.3479000000000001</v>
+        <v>-0.18350160987878894</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,10 +3792,10 @@
         <v>125.64202928930554</v>
       </c>
       <c r="C176">
-        <v>-0.27566643899999999</v>
+        <v>6.8631651160000002</v>
       </c>
       <c r="D176">
-        <v>1.2945</v>
+        <v>-0.2760470986690855</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,10 +3806,10 @@
         <v>173.38817186305968</v>
       </c>
       <c r="C177">
-        <v>-4.1777712979999997</v>
+        <v>25.32154916</v>
       </c>
       <c r="D177">
-        <v>1.3994</v>
+        <v>-4.2675495549006293</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,10 +3820,10 @@
         <v>171.93279149278845</v>
       </c>
       <c r="C178">
-        <v>-0.64810956500000005</v>
+        <v>12.585457699999999</v>
       </c>
       <c r="D178">
-        <v>2.9914999999999998</v>
+        <v>-0.65021891359258177</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,10 +3834,10 @@
         <v>203.88967799719163</v>
       </c>
       <c r="C179">
-        <v>-2.214021459</v>
+        <v>22.974432060000002</v>
       </c>
       <c r="D179">
-        <v>2.9661</v>
+        <v>-2.2388987930566095</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,10 +3848,10 @@
         <v>218.43799518661436</v>
       </c>
       <c r="C180">
-        <v>-2.0183336409999999</v>
+        <v>10.883262</v>
       </c>
       <c r="D180">
-        <v>2.8632</v>
+        <v>-2.0389802785095945</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,10 +3862,10 @@
         <v>188.17796907844254</v>
       </c>
       <c r="C181">
-        <v>-2.001805429</v>
+        <v>22.91455719</v>
       </c>
       <c r="D181">
-        <v>2.8571</v>
+        <v>-2.0221130228668116</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,10 +3876,10 @@
         <v>179.26256039004437</v>
       </c>
       <c r="C182">
-        <v>-3.896058112</v>
+        <v>17.569442370000001</v>
       </c>
       <c r="D182">
-        <v>2.3809999999999998</v>
+        <v>-3.9739852252234975</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,10 +3890,10 @@
         <v>135.01561396446792</v>
       </c>
       <c r="C183">
-        <v>-6.0579180179999996</v>
+        <v>15.951098780000001</v>
       </c>
       <c r="D183">
-        <v>2.2726999999999999</v>
+        <v>-6.2491742748918888</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,10 +3904,10 @@
         <v>140.95085099893987</v>
       </c>
       <c r="C184">
-        <v>-5.866461836</v>
+        <v>17.545962920000001</v>
       </c>
       <c r="D184">
-        <v>2.6398999999999999</v>
+        <v>-6.0455793078235232</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,10 +3918,10 @@
         <v>190.27880336916857</v>
       </c>
       <c r="C185">
-        <v>-8.1323112640000002</v>
+        <v>18.992112819999999</v>
       </c>
       <c r="D185">
-        <v>2.6151</v>
+        <v>-8.4820810010462822</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,10 +3932,10 @@
         <v>147.67372029484213</v>
       </c>
       <c r="C186">
-        <v>-4.9225596649999996</v>
+        <v>18.66187974</v>
       </c>
       <c r="D186">
-        <v>2.6151</v>
+        <v>-5.0478465034194286</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3935,10 +3946,10 @@
         <v>141.23330463924509</v>
       </c>
       <c r="C187">
-        <v>-6.1523965729999999</v>
+        <v>23.096082559999999</v>
       </c>
       <c r="D187">
-        <v>2.5026000000000002</v>
+        <v>-6.3497959489232869</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,10 +3960,10 @@
         <v>126.45848968867102</v>
       </c>
       <c r="C188">
-        <v>-4.7926556119999999</v>
+        <v>9.9755367970000002</v>
       </c>
       <c r="D188">
-        <v>2.7688999999999999</v>
+        <v>-4.9113100233525664</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,10 +3974,10 @@
         <v>98.053052881741252</v>
       </c>
       <c r="C189">
-        <v>-4.8236865790000003</v>
+        <v>21.770011239999999</v>
       </c>
       <c r="D189">
-        <v>2.2292999999999998</v>
+        <v>-4.943908374810313</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,10 +3988,10 @@
         <v>101.1551720585623</v>
       </c>
       <c r="C190">
-        <v>-4.5666415950000001</v>
+        <v>30.182785450000001</v>
       </c>
       <c r="D190">
-        <v>2.0747</v>
+        <v>-4.6741999834977399</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,10 +4002,10 @@
         <v>130.07621242181372</v>
       </c>
       <c r="C191">
-        <v>-5.1887326500000004</v>
+        <v>14.062782070000001</v>
       </c>
       <c r="D191">
-        <v>1.5431999999999999</v>
+        <v>-5.3281929881485723</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,10 +4016,10 @@
         <v>113.17735866815497</v>
       </c>
       <c r="C192">
-        <v>-7.209739388</v>
+        <v>40.322993089999997</v>
       </c>
       <c r="D192">
-        <v>1.5464</v>
+        <v>-7.4828502009582465</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,10 +4030,10 @@
         <v>141.23975786569349</v>
       </c>
       <c r="C193">
-        <v>-7.2423136570000004</v>
+        <v>41.802547009999998</v>
       </c>
       <c r="D193">
-        <v>1.6460999999999999</v>
+        <v>-7.517961630796588</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,10 +4044,10 @@
         <v>171.1816904372161</v>
       </c>
       <c r="C194">
-        <v>-3.5714547730000001</v>
+        <v>25.17280594</v>
       </c>
       <c r="D194">
-        <v>1.6913</v>
+        <v>-3.6367915893738889</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,10 +4058,10 @@
         <v>184.06682589384593</v>
       </c>
       <c r="C195">
-        <v>-4.4272908319999997</v>
+        <v>29.592879610000001</v>
       </c>
       <c r="D195">
-        <v>1.4815</v>
+        <v>-4.5282875637261633</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,10 +4072,10 @@
         <v>241.01820609666288</v>
       </c>
       <c r="C196">
-        <v>-5.2732394740000004</v>
+        <v>20.236845720000002</v>
       </c>
       <c r="D196">
-        <v>1.5431999999999999</v>
+        <v>-5.4173643607509092</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,10 +4086,10 @@
         <v>199.69656267358627</v>
       </c>
       <c r="C197">
-        <v>-4.6692233009999997</v>
+        <v>28.632344539999998</v>
       </c>
       <c r="D197">
-        <v>1.2232000000000001</v>
+        <v>-4.7817482036323078</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,10 +4100,10 @@
         <v>130.02479517251641</v>
       </c>
       <c r="C198">
-        <v>-4.2185877439999997</v>
+        <v>49.161008600000002</v>
       </c>
       <c r="D198">
-        <v>1.3251999999999999</v>
+        <v>-4.3101546393605972</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,10 +4114,10 @@
         <v>134.50194626251573</v>
       </c>
       <c r="C199">
-        <v>-2.4461917089999998</v>
+        <v>17.50793298</v>
       </c>
       <c r="D199">
-        <v>1.3225</v>
+        <v>-2.476608030327121</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,10 +4128,10 @@
         <v>172.21577239699857</v>
       </c>
       <c r="C200">
-        <v>-3.678612159</v>
+        <v>23.96895821</v>
       </c>
       <c r="D200">
-        <v>1.0363</v>
+        <v>-3.7479795887135126</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,10 +4142,10 @@
         <v>126.31225467787539</v>
       </c>
       <c r="C201">
-        <v>-4.5809350679999996</v>
+        <v>30.183409579999999</v>
       </c>
       <c r="D201">
-        <v>1.2461</v>
+        <v>-4.6891785442172207</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,10 +4156,10 @@
         <v>170.23085290357875</v>
       </c>
       <c r="C202">
-        <v>-2.6367423080000001</v>
+        <v>28.785498820000001</v>
       </c>
       <c r="D202">
-        <v>1.3210999999999999</v>
+        <v>-2.6721277594475623</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4159,10 +4170,10 @@
         <v>153.34207709728366</v>
       </c>
       <c r="C203">
-        <v>-0.39794370899999998</v>
+        <v>37.798705579999996</v>
       </c>
       <c r="D203">
-        <v>1.2158</v>
+        <v>-0.39873761159539001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,10 +4184,10 @@
         <v>187.17674543804279</v>
       </c>
       <c r="C204">
-        <v>0.60545914300000003</v>
+        <v>35.990007820000002</v>
       </c>
       <c r="D204">
-        <v>1.1168</v>
+        <v>0.60363360423290047</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,10 +4198,10 @@
         <v>94.338459199038809</v>
       </c>
       <c r="C205">
-        <v>-1.2012111519999999</v>
+        <v>19.272232769999999</v>
       </c>
       <c r="D205">
-        <v>0.91090000000000004</v>
+        <v>-1.2084839932076541</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,10 +4212,10 @@
         <v>116.01047551371981</v>
       </c>
       <c r="C206">
-        <v>0.40035366300000003</v>
+        <v>33.21327213</v>
       </c>
       <c r="D206">
-        <v>1.0395000000000001</v>
+        <v>0.39955438040486513</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,10 +4226,10 @@
         <v>136.19007171624747</v>
       </c>
       <c r="C207">
-        <v>0.20140650199999999</v>
+        <v>35.023738360000003</v>
       </c>
       <c r="D207">
-        <v>0.9385</v>
+        <v>0.20120395085720943</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,10 +4240,10 @@
         <v>128.51749671647175</v>
       </c>
       <c r="C208">
-        <v>-0.30364877600000001</v>
+        <v>23.699291769999999</v>
       </c>
       <c r="D208">
-        <v>0.91190000000000004</v>
+        <v>-0.30411072386655746</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,10 +4254,10 @@
         <v>102.5639684539114</v>
       </c>
       <c r="C209">
-        <v>1.5306070380000001</v>
+        <v>22.441331250000001</v>
       </c>
       <c r="D209">
-        <v>1.1077999999999999</v>
+        <v>1.519011421291161</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,10 +4268,10 @@
         <v>105.47377658482908</v>
       </c>
       <c r="C210">
-        <v>-1.901900138</v>
+        <v>50.103152350000002</v>
       </c>
       <c r="D210">
-        <v>0.80479999999999996</v>
+        <v>-1.9202189005278036</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4271,10 +4282,10 @@
         <v>104.60302906318174</v>
       </c>
       <c r="C211">
-        <v>0.20059844499999999</v>
+        <v>37.791401550000003</v>
       </c>
       <c r="D211">
-        <v>0.70279999999999998</v>
+        <v>0.20039751498872604</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4285,10 +4296,10 @@
         <v>110.70175213162423</v>
       </c>
       <c r="C212">
-        <v>-1.005028459</v>
+        <v>19.943133379999999</v>
       </c>
       <c r="D212">
-        <v>0.51280000000000003</v>
+        <v>-1.0101129660202268</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,10 +4310,10 @@
         <v>78.323611840616962</v>
       </c>
       <c r="C213">
-        <v>-0.71502377399999995</v>
+        <v>26.064392900000001</v>
       </c>
       <c r="D213">
-        <v>0.4103</v>
+        <v>-0.71759231980328408</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4313,10 +4324,10 @@
         <v>135.20099615318983</v>
       </c>
       <c r="C214">
-        <v>-1.805416098</v>
+        <v>22.103267639999999</v>
       </c>
       <c r="D214">
-        <v>0.4012</v>
+        <v>-1.8219125894414212</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,10 +4338,10 @@
         <v>104.25889493839674</v>
       </c>
       <c r="C215">
-        <v>-2.397641363</v>
+        <v>31.777355379999999</v>
       </c>
       <c r="D215">
-        <v>0.50049999999999994</v>
+        <v>-2.4268526497012388</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,10 +4352,10 @@
         <v>159.69913090432092</v>
       </c>
       <c r="C216">
-        <v>-1.9057253510000001</v>
+        <v>40.116968229999998</v>
       </c>
       <c r="D216">
-        <v>0.502</v>
+        <v>-1.9241183518069249</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,10 +4366,10 @@
         <v>120.30161379733218</v>
       </c>
       <c r="C217">
-        <v>0.101325572</v>
+        <v>31.52293276</v>
       </c>
       <c r="D217">
-        <v>0.6018</v>
+        <v>0.10127427181734205</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,10 +4380,10 @@
         <v>99.27145741657985</v>
       </c>
       <c r="C218">
-        <v>-1.9939755669999999</v>
+        <v>33.432478099999997</v>
       </c>
       <c r="D218">
-        <v>0.41149999999999998</v>
+        <v>-2.0141235403342783</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,10 +4394,10 @@
         <v>85.669578942883007</v>
       </c>
       <c r="C219">
-        <v>-0.40201339400000002</v>
+        <v>33.018629019999999</v>
       </c>
       <c r="D219">
-        <v>0.92979999999999996</v>
+        <v>-0.40282363998498383</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4397,10 +4408,10 @@
         <v>109.0559028232944</v>
       </c>
       <c r="C220">
-        <v>0.913710676</v>
+        <v>30.270095600000001</v>
       </c>
       <c r="D220">
-        <v>0.502</v>
+        <v>0.90956159437034501</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,10 +4422,10 @@
         <v>54.126877966934053</v>
       </c>
       <c r="C221">
-        <v>0.201011722</v>
+        <v>30.448182679999999</v>
       </c>
       <c r="D221">
-        <v>0.39839999999999998</v>
+        <v>0.20080996424791664</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,10 +4436,10 @@
         <v>146.4051790740865</v>
       </c>
       <c r="C222">
-        <v>2.5509879190000002</v>
+        <v>23.161021760000001</v>
       </c>
       <c r="D222">
-        <v>0.6986</v>
+        <v>2.5189932018698791</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,10 +4450,10 @@
         <v>119.77798777558419</v>
       </c>
       <c r="C223">
-        <v>0.100098427</v>
+        <v>27.437156609999999</v>
       </c>
       <c r="D223">
-        <v>0.69789999999999996</v>
+        <v>0.10004836154742236</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,10 +4464,10 @@
         <v>142.43014946273306</v>
       </c>
       <c r="C224">
-        <v>2.5380897230000001</v>
+        <v>20.764995420000002</v>
       </c>
       <c r="D224">
-        <v>0.91839999999999999</v>
+        <v>2.5064150615341063</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,10 +4478,10 @@
         <v>114.18858695469855</v>
       </c>
       <c r="C225">
-        <v>1.6460939649999999</v>
+        <v>35.257448879999998</v>
       </c>
       <c r="D225">
-        <v>1.0215000000000001</v>
+        <v>1.6326927028431193</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,10 +4492,10 @@
         <v>124.55347917761495</v>
       </c>
       <c r="C226">
-        <v>1.9407540059999999</v>
+        <v>16.55764658</v>
       </c>
       <c r="D226">
-        <v>0.89910000000000001</v>
+        <v>1.9221615458823393</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,10 +4506,10 @@
         <v>95.383616847345195</v>
       </c>
       <c r="C227">
-        <v>2.251794571</v>
+        <v>26.35896134</v>
       </c>
       <c r="D227">
-        <v>0.996</v>
+        <v>2.2268159599545534</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,10 +4520,10 @@
         <v>95.951449425055173</v>
       </c>
       <c r="C228">
-        <v>2.8629686419999998</v>
+        <v>27.106385620000001</v>
       </c>
       <c r="D228">
-        <v>0.69930000000000003</v>
+        <v>2.8227514938415688</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,10 +4534,10 @@
         <v>86.652669339006465</v>
       </c>
       <c r="C229">
-        <v>-0.101223007</v>
+        <v>23.429071969999999</v>
       </c>
       <c r="D229">
-        <v>0.59819999999999995</v>
+        <v>-0.10127427181734205</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,10 +4548,10 @@
         <v>96.989878412286643</v>
       </c>
       <c r="C230">
-        <v>3.4587724039999999</v>
+        <v>23.905620259999999</v>
       </c>
       <c r="D230">
-        <v>0.92210000000000003</v>
+        <v>3.4003013103521162</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,10 +4562,10 @@
         <v>119.48192793729947</v>
       </c>
       <c r="C231">
-        <v>1.3117743209999999</v>
+        <v>28.359348619999999</v>
       </c>
       <c r="D231">
-        <v>0.51180000000000003</v>
+        <v>1.3032450708080567</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,10 +4576,10 @@
         <v>104.27644481308872</v>
       </c>
       <c r="C232">
-        <v>1.106611295</v>
+        <v>19.398066750000002</v>
       </c>
       <c r="D232">
-        <v>0.59940000000000004</v>
+        <v>1.1005331522285999</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,10 +4590,10 @@
         <v>108.33815230084166</v>
       </c>
       <c r="C233">
-        <v>2.407221464</v>
+        <v>25.616941400000002</v>
       </c>
       <c r="D233">
-        <v>0.496</v>
+        <v>2.3787046237905507</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,10 +4604,10 @@
         <v>81.414462900355815</v>
       </c>
       <c r="C234">
-        <v>-9.9510804999999994E-2</v>
+        <v>23.739295139999999</v>
       </c>
       <c r="D234">
-        <v>0.59460000000000002</v>
+        <v>-9.9560349755645206E-2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,10 +4618,10 @@
         <v>197.15905814303221</v>
       </c>
       <c r="C235">
-        <v>-0.69999831000000001</v>
+        <v>27.644534539999999</v>
       </c>
       <c r="D235">
-        <v>0.495</v>
+        <v>-0.70245979164127448</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4621,10 +4632,10 @@
         <v>129.44780619469799</v>
       </c>
       <c r="C236">
-        <v>0.29705440799999999</v>
+        <v>22.276855820000002</v>
       </c>
       <c r="D236">
-        <v>0.60670000000000002</v>
+        <v>0.29661407368450909</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,10 +4646,10 @@
         <v>102.52937405861893</v>
       </c>
       <c r="C237">
-        <v>3.3400859199999999</v>
+        <v>23.709844919999998</v>
       </c>
       <c r="D237">
-        <v>0.40439999999999998</v>
+        <v>3.2855168301921367</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,10 +4660,10 @@
         <v>140.2138283302819</v>
       </c>
       <c r="C238">
-        <v>2.1041932449999998</v>
+        <v>19.544168930000001</v>
       </c>
       <c r="D238">
-        <v>0.495</v>
+        <v>2.0823608319087583</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,10 +4674,10 @@
         <v>132.1904712086538</v>
       </c>
       <c r="C239">
-        <v>2.5025307410000002</v>
+        <v>23.923061109999999</v>
       </c>
       <c r="D239">
-        <v>0.19719999999999999</v>
+        <v>2.4717302444588363</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,10 +4688,10 @@
         <v>180.27573916014421</v>
       </c>
       <c r="C240">
-        <v>2.6839219179999998</v>
+        <v>44.622655080000001</v>
       </c>
       <c r="D240">
-        <v>0.496</v>
+        <v>2.6485364824309521</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,10 +4702,10 @@
         <v>159.45264506945205</v>
       </c>
       <c r="C241">
-        <v>6.3829334500000003</v>
+        <v>38.814526100000002</v>
       </c>
       <c r="D241">
-        <v>0.69379999999999997</v>
+        <v>6.1874978150596505</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,10 +4716,10 @@
         <v>112.90602380801526</v>
       </c>
       <c r="C242">
-        <v>0.39334654299999999</v>
+        <v>26.375351899999998</v>
       </c>
       <c r="D242">
-        <v>0.60909999999999997</v>
+        <v>0.3925749583791216</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,10 +4730,10 @@
         <v>114.10034157680262</v>
       </c>
       <c r="C243">
-        <v>2.589658896</v>
+        <v>11.78644555</v>
       </c>
       <c r="D243">
-        <v>0.71279999999999999</v>
+        <v>2.55669511792469</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,10 +4744,10 @@
         <v>98.555708019424543</v>
       </c>
       <c r="C244">
-        <v>3.2836575400000001</v>
+        <v>49.958583619999999</v>
       </c>
       <c r="D244">
-        <v>0.69510000000000005</v>
+        <v>3.2308973745236003</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,10 +4758,10 @@
         <v>61.858981816280064</v>
       </c>
       <c r="C245">
-        <v>1.273269567</v>
+        <v>30.38527951</v>
       </c>
       <c r="D245">
-        <v>1.0859000000000001</v>
+        <v>1.2652316477334224</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4761,10 +4772,10 @@
         <v>62.901830521814503</v>
       </c>
       <c r="C246">
-        <v>3.8844883440000002</v>
+        <v>27.080104469999998</v>
       </c>
       <c r="D246">
-        <v>0.78820000000000001</v>
+        <v>3.8109406877741669</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,10 +4786,10 @@
         <v>99.649020356625059</v>
       </c>
       <c r="C247">
-        <v>6.4451188430000004</v>
+        <v>22.95125912</v>
       </c>
       <c r="D247">
-        <v>0.98519999999999996</v>
+        <v>6.24593503144526</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,10 +4800,10 @@
         <v>74.033660960354041</v>
       </c>
       <c r="C248">
-        <v>5.1331995939999997</v>
+        <v>20.718866389999999</v>
       </c>
       <c r="D248">
-        <v>0.90449999999999997</v>
+        <v>5.0057927779759481</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,10 +4814,10 @@
         <v>31.701534582704117</v>
       </c>
       <c r="C249">
-        <v>5.974542445</v>
+        <v>40.301000129999998</v>
       </c>
       <c r="D249">
-        <v>1.2084999999999999</v>
+        <v>5.8028713664196374</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,10 +4828,10 @@
         <v>91.194235420073483</v>
       </c>
       <c r="C250">
-        <v>3.1403012029999999</v>
+        <v>31.71174152</v>
       </c>
       <c r="D250">
-        <v>0.98519999999999996</v>
+        <v>3.0920022959621818</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,10 +4842,10 @@
         <v>66.270566265736932</v>
       </c>
       <c r="C251">
-        <v>3.2226307850000002</v>
+        <v>45.517824599999997</v>
       </c>
       <c r="D251">
-        <v>0.59060000000000001</v>
+        <v>3.1717933568925716</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,10 +4856,10 @@
         <v>63.299969300003845</v>
       </c>
       <c r="C252">
-        <v>3.9690622840000001</v>
+        <v>28.52465883</v>
       </c>
       <c r="D252">
-        <v>0.49359999999999998</v>
+        <v>3.8923190859306622</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,10 +4870,10 @@
         <v>62.125211795591085</v>
       </c>
       <c r="C253">
-        <v>5.5238915259999999</v>
+        <v>54.838288319999997</v>
       </c>
       <c r="D253">
-        <v>0.49209999999999998</v>
+        <v>5.376720125332124</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4873,10 +4884,10 @@
         <v>102.9585200968542</v>
       </c>
       <c r="C254">
-        <v>4.4074188349999996</v>
+        <v>47.159498319999997</v>
       </c>
       <c r="D254">
-        <v>0.80730000000000002</v>
+        <v>4.3130548574238148</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,10 +4898,10 @@
         <v>79.059170638918047</v>
       </c>
       <c r="C255">
-        <v>2.7184794069999998</v>
+        <v>46.514665000000001</v>
       </c>
       <c r="D255">
-        <v>0.60670000000000002</v>
+        <v>2.6821850563406358</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,10 +4912,10 @@
         <v>77.476555490256473</v>
       </c>
       <c r="C256">
-        <v>3.4682064220000002</v>
+        <v>36.087647310000001</v>
       </c>
       <c r="D256">
-        <v>0.78900000000000003</v>
+        <v>3.4094195195418564</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,10 +4926,10 @@
         <v>77.249375718371923</v>
       </c>
       <c r="C257">
-        <v>2.2243629550000001</v>
+        <v>36.270679389999998</v>
       </c>
       <c r="D257">
-        <v>0.58589999999999998</v>
+        <v>2.1999848448161607</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,10 +4940,10 @@
         <v>135.18132578443829</v>
       </c>
       <c r="C258">
-        <v>2.3010548339999999</v>
+        <v>27.4271937</v>
       </c>
       <c r="D258">
-        <v>0.78200000000000003</v>
+        <v>2.2749798098268492</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,10 +4954,10 @@
         <v>129.37375720618235</v>
       </c>
       <c r="C259">
-        <v>1.4191342330000001</v>
+        <v>19.224419309999998</v>
       </c>
       <c r="D259">
-        <v>0.78049999999999997</v>
+        <v>1.4091587885599388</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,10 +4968,10 @@
         <v>101.33782814702596</v>
       </c>
       <c r="C260">
-        <v>-0.46942890100000001</v>
+        <v>22.509089880000001</v>
       </c>
       <c r="D260">
-        <v>1.0955999999999999</v>
+        <v>-0.47053417844704626</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,10 +4982,10 @@
         <v>87.705528675658257</v>
       </c>
       <c r="C261">
-        <v>-1.20148626</v>
+        <v>18.48880724</v>
       </c>
       <c r="D261">
-        <v>0.79600000000000004</v>
+        <v>-1.2087624468975378</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,10 +4996,10 @@
         <v>109.44738459303053</v>
       </c>
       <c r="C262">
-        <v>1.9030137629999999</v>
+        <v>9.2920957879999992</v>
       </c>
       <c r="D262">
-        <v>0.68289999999999995</v>
+        <v>1.8851329497874048</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4999,10 +5010,10 @@
         <v>148.87244196236679</v>
       </c>
       <c r="C263">
-        <v>0.94605795000000004</v>
+        <v>10.46982773</v>
       </c>
       <c r="D263">
-        <v>0.78280000000000005</v>
+        <v>0.94161084783603854</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,10 +5024,10 @@
         <v>139.26294795344006</v>
       </c>
       <c r="C264">
-        <v>-2.3277534169999998</v>
+        <v>21.216005509999999</v>
       </c>
       <c r="D264">
-        <v>0.78590000000000004</v>
+        <v>-2.3552735023841365</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,10 +5038,10 @@
         <v>187.63554528275972</v>
       </c>
       <c r="C265">
-        <v>-4.873689873</v>
+        <v>12.93324808</v>
       </c>
       <c r="D265">
-        <v>0.5877</v>
+        <v>-4.9964597214265716</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,10 +5052,10 @@
         <v>169.99783581953128</v>
       </c>
       <c r="C266">
-        <v>-0.37517203599999999</v>
+        <v>20.959996660000002</v>
       </c>
       <c r="D266">
-        <v>0.60060000000000002</v>
+        <v>-0.37587757142265588</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,10 +5066,10 @@
         <v>158.58831954067259</v>
       </c>
       <c r="C267">
-        <v>0.66158621900000003</v>
+        <v>10.86776227</v>
       </c>
       <c r="D267">
-        <v>0.50249999999999995</v>
+        <v>0.6594073420859381</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,10 +5080,10 @@
         <v>107.76082900119499</v>
       </c>
       <c r="C268">
-        <v>-1.676023432</v>
+        <v>18.18659963</v>
       </c>
       <c r="D268">
-        <v>0.48920000000000002</v>
+        <v>-1.6902276390641902</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,10 +5094,10 @@
         <v>145.0856423888163</v>
       </c>
       <c r="C269">
-        <v>-1.4191342330000001</v>
+        <v>13.70046116</v>
       </c>
       <c r="D269">
-        <v>0.67959999999999998</v>
+        <v>-1.4293002365135088</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,10 +5108,10 @@
         <v>163.96968899462195</v>
       </c>
       <c r="C270">
-        <v>-0.37491412099999999</v>
+        <v>11.229970570000001</v>
       </c>
       <c r="D270">
-        <v>0.48499999999999999</v>
+        <v>-0.37561868578492863</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,10 +5122,10 @@
         <v>114.65299591661471</v>
       </c>
       <c r="C271">
-        <v>-1.1194026370000001</v>
+        <v>12.474801830000001</v>
       </c>
       <c r="D271">
-        <v>0.48399999999999999</v>
+        <v>-1.1257151004206989</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,10 +5136,10 @@
         <v>88.916760644204544</v>
       </c>
       <c r="C272">
-        <v>9.4347454999999997E-2</v>
+        <v>12.216065179999999</v>
       </c>
       <c r="D272">
-        <v>0.39410000000000001</v>
+        <v>9.4302976023286078E-2</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,10 +5150,10 @@
         <v>112.59803082900295</v>
       </c>
       <c r="C273">
-        <v>-1.49675698</v>
+        <v>17.264676550000001</v>
       </c>
       <c r="D273">
-        <v>0.59230000000000005</v>
+        <v>-1.5080714288756347</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5153,10 +5164,10 @@
         <v>111.84922127195817</v>
       </c>
       <c r="C274">
-        <v>-2.0541389529999998</v>
+        <v>37.481205780000003</v>
       </c>
       <c r="D274">
-        <v>0.48449999999999999</v>
+        <v>-2.0755298260871413</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,10 +5178,10 @@
         <v>95.26595263668905</v>
       </c>
       <c r="C275">
-        <v>-2.343025801</v>
+        <v>25.640239040000001</v>
       </c>
       <c r="D275">
-        <v>0.67959999999999998</v>
+        <v>-2.3709110843495473</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5181,10 +5192,10 @@
         <v>89.521094544257565</v>
       </c>
       <c r="C276">
-        <v>-0.38134716600000002</v>
+        <v>25.633520839999999</v>
       </c>
       <c r="D276">
-        <v>0.68230000000000002</v>
+        <v>-0.38207614826371028</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,10 +5206,10 @@
         <v>149.83251519551408</v>
       </c>
       <c r="C277">
-        <v>-3.510444895</v>
+        <v>34.936730019999999</v>
       </c>
       <c r="D277">
-        <v>0.68159999999999998</v>
+        <v>-3.5735420753348457</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5209,10 +5220,10 @@
         <v>127.87341148074616</v>
       </c>
       <c r="C278">
-        <v>-0.47084880899999998</v>
+        <v>56.833636230000003</v>
       </c>
       <c r="D278">
-        <v>0.59699999999999998</v>
+        <v>-0.47196079345157571</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5223,10 +5234,10 @@
         <v>106.60549120564356</v>
       </c>
       <c r="C279">
-        <v>-3.0985688009999999</v>
+        <v>50.748522190000003</v>
       </c>
       <c r="D279">
-        <v>0.6</v>
+        <v>-3.1475897340643044</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5237,10 +5248,10 @@
         <v>225.07434688035408</v>
       </c>
       <c r="C280">
-        <v>-29.829540720000001</v>
+        <v>25.35889907</v>
       </c>
       <c r="D280">
-        <v>0.68159999999999998</v>
+        <v>-35.424277148811626</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5251,10 +5262,10 @@
         <v>211.46612739542979</v>
       </c>
       <c r="C281">
-        <v>-44.049896680000003</v>
+        <v>45.848429660000001</v>
       </c>
       <c r="D281">
-        <v>0.77149999999999996</v>
+        <v>-58.070990459080733</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,10 +5276,10 @@
         <v>174.28109207331573</v>
       </c>
       <c r="C282">
-        <v>-20.413891660000001</v>
+        <v>31.392597049999999</v>
       </c>
       <c r="D282">
-        <v>0.7722</v>
+        <v>-22.833062673057558</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5279,10 +5290,10 @@
         <v>156.47175198515851</v>
       </c>
       <c r="C283">
-        <v>-13.77360573</v>
+        <v>44.929640280000001</v>
       </c>
       <c r="D283">
-        <v>0.57799999999999996</v>
+        <v>-14.819385719799349</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,10 +5304,10 @@
         <v>150.86637954896941</v>
       </c>
       <c r="C284">
-        <v>-7.8228448730000002</v>
+        <v>26.296179810000002</v>
       </c>
       <c r="D284">
-        <v>1.8646</v>
+        <v>-8.1457861323095848</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5307,10 +5318,10 @@
         <v>160.26182113782582</v>
       </c>
       <c r="C285">
-        <v>-0.85467731400000002</v>
+        <v>45.092271879999998</v>
       </c>
       <c r="D285">
-        <v>0.39250000000000002</v>
+        <v>-0.85835062546726348</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5320,11 +5331,9 @@
       <c r="B286" s="1">
         <v>169.11854068448324</v>
       </c>
-      <c r="C286">
-        <v>-4.5757846459999998</v>
-      </c>
+      <c r="C286" s="1"/>
       <c r="D286">
-        <v>-0.38569999999999999</v>
+        <v>-4.6837810032767102</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,11 +5343,9 @@
       <c r="B287" s="1">
         <v>173.7636249251571</v>
       </c>
-      <c r="C287">
-        <v>-1.7273995049999999</v>
-      </c>
+      <c r="C287" s="1"/>
       <c r="D287">
-        <v>0</v>
+        <v>-1.7424931203790628</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,11 +5355,9 @@
       <c r="B288" s="1">
         <v>279.38913293818945</v>
       </c>
-      <c r="C288">
-        <v>-4.1147923320000004</v>
-      </c>
+      <c r="C288" s="1"/>
       <c r="D288">
-        <v>0.29039999999999999</v>
+        <v>-4.201846346210214</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5362,11 +5367,9 @@
       <c r="B289" s="1">
         <v>141.72860467210816</v>
       </c>
-      <c r="C289">
-        <v>-1.2782779289999999</v>
-      </c>
+      <c r="C289" s="1"/>
       <c r="D289">
-        <v>0.38679999999999998</v>
+        <v>-1.2865181988362728</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5376,11 +5379,9 @@
       <c r="B290" s="1">
         <v>247.12470893831093</v>
       </c>
-      <c r="C290">
-        <v>-1.5137494890000001</v>
-      </c>
+      <c r="C290" s="1"/>
       <c r="D290">
-        <v>1.1869000000000001</v>
+        <v>-1.5253236275060367</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5390,11 +5391,9 @@
       <c r="B291" s="1">
         <v>136.78912165027251</v>
       </c>
-      <c r="C291">
-        <v>-0.58134689500000003</v>
-      </c>
+      <c r="C291" s="1"/>
       <c r="D291">
-        <v>1.3916999999999999</v>
+        <v>-0.58304329408631617</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5404,11 +5403,9 @@
       <c r="B292" s="1">
         <v>175.08766129905771</v>
       </c>
-      <c r="C292">
-        <v>38.866353650000001</v>
-      </c>
+      <c r="C292" s="1"/>
       <c r="D292">
-        <v>0.48359999999999997</v>
+        <v>32.834180008135675</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5418,11 +5415,9 @@
       <c r="B293" s="1">
         <v>133.86842941008666</v>
       </c>
-      <c r="C293">
-        <v>79.245302440000003</v>
-      </c>
+      <c r="C293" s="1"/>
       <c r="D293">
-        <v>0.19139999999999999</v>
+        <v>58.358508639002515</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,11 +5427,9 @@
       <c r="B294" s="1">
         <v>59.527955400035857</v>
       </c>
-      <c r="C294">
-        <v>21.512962959999999</v>
-      </c>
+      <c r="C294" s="1"/>
       <c r="D294">
-        <v>9.5799999999999996E-2</v>
+        <v>19.485076212759544</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5446,11 +5439,9 @@
       <c r="B295" s="1">
         <v>104.80567408669692</v>
       </c>
-      <c r="C295">
-        <v>14.55144132</v>
-      </c>
+      <c r="C295" s="1"/>
       <c r="D295">
-        <v>0.28739999999999999</v>
+        <v>13.585380526818103</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5460,11 +5451,9 @@
       <c r="B296" s="1">
         <v>61.540165650860757</v>
       </c>
-      <c r="C296">
-        <v>7.9754601230000004</v>
-      </c>
+      <c r="C296" s="1"/>
       <c r="D296">
-        <v>-0.57799999999999996</v>
+        <v>7.6733794231389929</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,11 +5463,9 @@
       <c r="B297" s="1">
         <v>41.307136491746519</v>
       </c>
-      <c r="C297">
-        <v>-0.38317369400000001</v>
-      </c>
+      <c r="C297" s="1"/>
       <c r="D297">
-        <v>0.87980000000000003</v>
+        <v>-0.38390968467494346</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,11 +5475,9 @@
       <c r="B298" s="1">
         <v>102.89989592077029</v>
       </c>
-      <c r="C298">
-        <v>5.0948280429999997</v>
-      </c>
+      <c r="C298" s="1"/>
       <c r="D298">
-        <v>1.3552999999999999</v>
+        <v>4.9692880814176554</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,11 +5487,9 @@
       <c r="B299" s="1">
         <v>70.720974801923688</v>
       </c>
-      <c r="C299">
-        <v>2.5389802860000001</v>
-      </c>
+      <c r="C299" s="1"/>
       <c r="D299">
-        <v>1.1572</v>
+        <v>2.5072835773931601</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5516,11 +5499,9 @@
       <c r="B300" s="1">
         <v>102.59614203779499</v>
       </c>
-      <c r="C300">
-        <v>6.7863904890000004</v>
-      </c>
+      <c r="C300" s="1"/>
       <c r="D300">
-        <v>1.2547999999999999</v>
+        <v>6.5660302543892435</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5530,11 +5511,9 @@
       <c r="B301" s="1">
         <v>128.32329926757942</v>
       </c>
-      <c r="C301">
-        <v>4.780878081</v>
-      </c>
+      <c r="C301" s="1"/>
       <c r="D301">
-        <v>1.5414000000000001</v>
+        <v>4.6701108195779106</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,11 +5523,9 @@
       <c r="B302" s="1">
         <v>123.7361361084206</v>
       </c>
-      <c r="C302">
-        <v>-2.1133370419999999</v>
-      </c>
+      <c r="C302" s="1"/>
       <c r="D302">
-        <v>1.4662999999999999</v>
+        <v>-2.1359877004844208</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5558,11 +5535,9 @@
       <c r="B303" s="1">
         <v>119.77629193859694</v>
       </c>
-      <c r="C303">
-        <v>3.313822295</v>
-      </c>
+      <c r="C303" s="1"/>
       <c r="D303">
-        <v>1.8627</v>
+        <v>3.2600988497035743</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,11 +5547,9 @@
       <c r="B304" s="1">
         <v>139.12014865643766</v>
       </c>
-      <c r="C304">
-        <v>3.304163419</v>
-      </c>
+      <c r="C304" s="1"/>
       <c r="D304">
-        <v>2.1173999999999999</v>
+        <v>3.2507493477351268</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,11 +5559,9 @@
       <c r="B305" s="1">
         <v>129.17140713574705</v>
       </c>
-      <c r="C305">
-        <v>3.9234845389999999</v>
-      </c>
+      <c r="C305" s="1"/>
       <c r="D305">
-        <v>2.5788000000000002</v>
+        <v>3.8484716786930662</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5600,11 +5571,9 @@
       <c r="B306" s="1">
         <v>132.8385195338322</v>
       </c>
-      <c r="C306">
-        <v>3.2101907359999999</v>
-      </c>
+      <c r="C306" s="1"/>
       <c r="D306">
-        <v>3.4449999999999998</v>
+        <v>3.1597409624094297</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5614,11 +5583,9 @@
       <c r="B307" s="1">
         <v>137.63568185516743</v>
       </c>
-      <c r="C307">
-        <v>-0.85957476899999996</v>
-      </c>
+      <c r="C307" s="1"/>
       <c r="D307">
-        <v>4.0114999999999998</v>
+        <v>-0.8632904206437253</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,11 +5595,9 @@
       <c r="B308" s="1">
         <v>125.29542795683584</v>
       </c>
-      <c r="C308">
-        <v>-1.136363636</v>
-      </c>
+      <c r="C308" s="1"/>
       <c r="D308">
-        <v>4.2636000000000003</v>
+        <v>-1.1428695823623158</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5642,11 +5607,9 @@
       <c r="B309" s="1">
         <v>116.83594315451541</v>
       </c>
-      <c r="C309">
-        <v>2.7885024999999999</v>
-      </c>
+      <c r="C309" s="1"/>
       <c r="D309">
-        <v>4.9419000000000004</v>
+        <v>2.7503317390178417</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,11 +5619,9 @@
       <c r="B310" s="1">
         <v>173.12961791946989</v>
       </c>
-      <c r="C310">
-        <v>-0.66535984000000004</v>
-      </c>
+      <c r="C310" s="1"/>
       <c r="D310">
-        <v>5.3486000000000002</v>
+        <v>-0.66758322640465551</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5670,11 +5631,9 @@
       <c r="B311" s="1">
         <v>96.821887271473926</v>
       </c>
-      <c r="C311">
-        <v>-1.61899283</v>
-      </c>
+      <c r="C311" s="1"/>
       <c r="D311">
-        <v>5.7196999999999996</v>
+        <v>-1.6322417123751265</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5684,11 +5643,9 @@
       <c r="B312" s="1">
         <v>86.189838910138576</v>
       </c>
-      <c r="C312">
-        <v>-3.644882612</v>
-      </c>
+      <c r="C312" s="1"/>
       <c r="D312">
-        <v>6.101</v>
+        <v>-3.7129680049615921</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5698,11 +5655,9 @@
       <c r="B313" s="1">
         <v>78.633408504815833</v>
       </c>
-      <c r="C313">
-        <v>-0.85548981300000004</v>
-      </c>
+      <c r="C313" s="1"/>
       <c r="D313">
-        <v>6.4516</v>
+        <v>-0.85917013180374369</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5712,11 +5667,9 @@
       <c r="B314" s="1">
         <v>100.37407363713609</v>
       </c>
-      <c r="C314">
-        <v>1.6683432869999999</v>
-      </c>
+      <c r="C314" s="1"/>
       <c r="D314">
-        <v>6.6474000000000002</v>
+        <v>1.6545793160129385</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,11 +5679,9 @@
       <c r="B315" s="1">
         <v>117.90849826230965</v>
       </c>
-      <c r="C315">
-        <v>-2.3584976869999998</v>
-      </c>
+      <c r="C315" s="1"/>
       <c r="D315">
-        <v>7.0259999999999998</v>
+        <v>-2.3867554332215768</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5740,11 +5691,9 @@
       <c r="B316" s="1">
         <v>128.97455213024261</v>
       </c>
-      <c r="C316">
-        <v>-3.1984803999999998</v>
-      </c>
+      <c r="C316" s="1"/>
       <c r="D316">
-        <v>6.7861000000000002</v>
+        <v>-3.2507493477351268</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,11 +5703,9 @@
       <c r="B317" s="1">
         <v>156.72842110023004</v>
       </c>
-      <c r="C317">
-        <v>-7.1823631790000002</v>
-      </c>
+      <c r="C317" s="1"/>
       <c r="D317">
-        <v>6.7039</v>
+        <v>-7.4533512305987593</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5768,11 +5715,9 @@
       <c r="B318" s="1">
         <v>115.4877875823241</v>
       </c>
-      <c r="C318">
-        <v>-3.3930241149999998</v>
-      </c>
+      <c r="C318" s="1"/>
       <c r="D318">
-        <v>6.383</v>
+        <v>-3.4519233247544356</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5782,11 +5727,24 @@
       <c r="B319" s="1">
         <v>96.531035403385104</v>
       </c>
-      <c r="C319">
-        <v>-0.77077677</v>
-      </c>
+      <c r="C319" s="1"/>
       <c r="D319">
-        <v>6.0606</v>
+        <v>-0.77376260635455552</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>-2.2276868651792014</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>-4.300685783865088</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>-2.0300113003008491</v>
       </c>
     </row>
   </sheetData>
